--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,69 +52,69 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>junk</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -157,13 +157,16 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>enjoy</t>
@@ -175,7 +178,7 @@
     <t>fun</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -553,7 +556,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>37</v>
@@ -661,13 +664,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +682,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7323943661971831</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K5">
-        <v>0.8279569892473119</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7096774193548387</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C6">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6875</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>41</v>
@@ -861,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6418918918918919</v>
+        <v>0.640625</v>
       </c>
       <c r="C8">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D8">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.563845050215208</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L8">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>393</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>304</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.616504854368932</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C9">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.5507246376811594</v>
+        <v>0.5652797704447633</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>394</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.5124481327800829</v>
+        <v>0.479253112033195</v>
       </c>
       <c r="L10">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="M10">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1003,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>235</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5882352941176471</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>0.4467213114754098</v>
+        <v>0.4491803278688525</v>
       </c>
       <c r="L11">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M11">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5159420289855072</v>
+        <v>0.518840579710145</v>
       </c>
       <c r="C12">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D12">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>0.3730886850152905</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L12">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4251968503937008</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>0.3650793650793651</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4216867469879518</v>
+        <v>0.390625</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>0.3554216867469879</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>107</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,37 +1214,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3791469194312796</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>80</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>131</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K15">
-        <v>0.3333333333333333</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.359375</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K16">
-        <v>0.1774193548387097</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="L16">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>153</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3263157894736842</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>0.1606425702811245</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>209</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1361,13 +1364,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3258426966292135</v>
+        <v>0.2722772277227723</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1379,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K18">
-        <v>0.1481156879929886</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="L18">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>169</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>972</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2673267326732673</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1429,31 +1432,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K19">
-        <v>0.0855614973262032</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>342</v>
+        <v>975</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1461,13 +1464,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2371134020618557</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1479,31 +1482,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K20">
-        <v>0.07862248213125406</v>
+        <v>0.08356545961002786</v>
       </c>
       <c r="L20">
-        <v>121</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1418</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1511,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1529,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K21">
-        <v>0.03861517976031957</v>
+        <v>0.06827048114434331</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N21">
         <v>0.97</v>
@@ -1553,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>722</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1561,13 +1564,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1811594202898551</v>
+        <v>0.165</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1579,7 +1582,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>226</v>
+        <v>167</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22">
+        <v>0.04005340453938585</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>33</v>
+      </c>
+      <c r="N22">
+        <v>0.91</v>
+      </c>
+      <c r="O22">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1587,13 +1614,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1740506329113924</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1605,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1613,25 +1640,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1671469740634006</v>
+        <v>0.1572700296735905</v>
       </c>
       <c r="C24">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="D24">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>289</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1639,13 +1666,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1617210682492582</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C25">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1657,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>565</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1665,13 +1692,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1424050632911392</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1683,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>271</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1691,25 +1718,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.130242825607064</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C27">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E27">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>394</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1717,13 +1744,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0779510022271715</v>
+        <v>0.07126948775055679</v>
       </c>
       <c r="C28">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1735,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1743,25 +1770,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.06765676567656766</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F29">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1769,25 +1796,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03929024081115336</v>
+        <v>0.04689480354879594</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E30">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="F30">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
